--- a/RBNY_yearly_stats/main_stats/all_2018_stats.xlsx
+++ b/RBNY_yearly_stats/main_stats/all_2018_stats.xlsx
@@ -2538,7 +2538,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2745,6 +2745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -15855,14 +15858,18 @@
       <c r="O32" s="14">
         <v>0</v>
       </c>
-      <c r="P32" s="17"/>
+      <c r="P32" s="69">
+        <v>0</v>
+      </c>
       <c r="Q32" s="14">
         <v>0</v>
       </c>
       <c r="R32" s="14">
         <v>0</v>
       </c>
-      <c r="S32" s="17"/>
+      <c r="S32" s="69">
+        <v>0</v>
+      </c>
       <c r="T32" s="14">
         <v>0</v>
       </c>
@@ -16013,8 +16020,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="22" width="16.3516" style="69" customWidth="1"/>
-    <col min="23" max="16384" width="16.3516" style="69" customWidth="1"/>
+    <col min="1" max="22" width="16.3516" style="70" customWidth="1"/>
+    <col min="23" max="16384" width="16.3516" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -18225,8 +18232,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="28" width="16.3516" style="70" customWidth="1"/>
-    <col min="29" max="16384" width="16.3516" style="70" customWidth="1"/>
+    <col min="1" max="28" width="16.3516" style="71" customWidth="1"/>
+    <col min="29" max="16384" width="16.3516" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
